--- a/biology/Zoologie/Guyanancistrus_niger/Guyanancistrus_niger.xlsx
+++ b/biology/Zoologie/Guyanancistrus_niger/Guyanancistrus_niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guyanancistrus noir
 Le Guyanancistrus noir (Guyanancistrus niger) est une espèce de poissons-chats de la famille des Loricariidae.
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par John Roxborough Norman en 1926 sous le protonyme Hemiancistrus niger. Elle est placée par certains auteurs dans les genres Lasiancistrus et Pseudancistrus, mais fait désormais partie du genre Guyanancistrus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par John Roxborough Norman en 1926 sous le protonyme Hemiancistrus niger. Elle est placée par certains auteurs dans les genres Lasiancistrus et Pseudancistrus, mais fait désormais partie du genre Guyanancistrus.
 </t>
         </is>
       </c>
